--- a/biology/Zoologie/Crotaphytus_insularis/Crotaphytus_insularis.xlsx
+++ b/biology/Zoologie/Crotaphytus_insularis/Crotaphytus_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphytus insularis est une espèce de sauriens de la famille des Crotaphytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphytus insularis est une espèce de sauriens de la famille des Crotaphytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Basse-Californie au Mexique et aux États-Unis en Californie, en Arizona, au Nevada, en Utah, en Idaho et en Oregon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Basse-Californie au Mexique et aux États-Unis en Californie, en Arizona, au Nevada, en Utah, en Idaho et en Oregon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Van Denburgh &amp; Slevin, 1921 : A list of the amphibians and reptiles of Nevada, with notes on the species in the collection of the academy. Proceedings of the California Academy of Sciences, ser. 4, vol. 11, n. 2, p. 27-38 (texte intégral).</t>
         </is>
